--- a/MCLM/docs/MCLM API資料.xlsx
+++ b/MCLM/docs/MCLM API資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="120" windowWidth="21090" windowHeight="12500" activeTab="2"/>
+    <workbookView xWindow="400" yWindow="120" windowWidth="21090" windowHeight="12500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bridge一覧" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="343">
   <si>
     <t>バッテリの電圧を取得する</t>
     <phoneticPr fontId="1"/>
@@ -1237,10 +1237,6 @@
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EV3COL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3777,6 +3773,79 @@
 q.sys.populate.arc
 m.datatype.arc
 xtuml.sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーセンサでRGB Raw値を測定する</t>
+    <rPh sb="14" eb="15">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev3_color_sensor_get_rgb_raw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EV3COL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_rgb_raw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGBのraw値を取得する</t>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下はoutputパラメータとなる
+r_r : 取得されたr値が入る
+r_g : 取得されたg値が入る
+r_b : 取得されたb値が入る</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ハイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3962,10 +4031,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4262,10 +4331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4295,7 +4364,7 @@
         <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26">
@@ -4320,8 +4389,8 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="26">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>105</v>
       </c>
@@ -4337,8 +4406,8 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -4346,8 +4415,8 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="117">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
@@ -4363,8 +4432,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="78">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>113</v>
       </c>
@@ -4380,8 +4449,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
@@ -4389,8 +4458,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="65">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>117</v>
       </c>
@@ -4398,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>115</v>
@@ -4406,8 +4475,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="52">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3" t="s">
         <v>118</v>
       </c>
@@ -4423,8 +4492,8 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="26">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>119</v>
       </c>
@@ -4440,10 +4509,10 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -4457,8 +4526,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
@@ -4466,8 +4535,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="39">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>121</v>
       </c>
@@ -4483,8 +4552,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>123</v>
       </c>
@@ -4496,8 +4565,8 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>123</v>
       </c>
@@ -4509,8 +4578,8 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>123</v>
       </c>
@@ -4522,8 +4591,8 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
         <v>123</v>
       </c>
@@ -4535,8 +4604,8 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
         <v>123</v>
       </c>
@@ -4548,8 +4617,8 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
         <v>123</v>
       </c>
@@ -4561,8 +4630,8 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
@@ -4570,8 +4639,8 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3" t="s">
         <v>123</v>
       </c>
@@ -4583,8 +4652,8 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
@@ -4598,8 +4667,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="65">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3" t="s">
         <v>124</v>
       </c>
@@ -4607,7 +4676,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>125</v>
@@ -4617,8 +4686,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="65">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3" t="s">
         <v>128</v>
       </c>
@@ -4626,7 +4695,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>129</v>
@@ -4636,8 +4705,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="26">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3" t="s">
         <v>131</v>
       </c>
@@ -4653,8 +4722,8 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="26">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
@@ -4670,8 +4739,8 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="65">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3" t="s">
         <v>135</v>
       </c>
@@ -4682,13 +4751,13 @@
         <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="39">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3" t="s">
         <v>137</v>
       </c>
@@ -4704,21 +4773,21 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="14" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -4743,8 +4812,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="26">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="3" t="s">
         <v>123</v>
       </c>
@@ -4758,8 +4827,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="117">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
@@ -4777,8 +4846,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="117">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="3" t="s">
         <v>143</v>
       </c>
@@ -4794,8 +4863,8 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="143">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="3" t="s">
         <v>144</v>
       </c>
@@ -4803,7 +4872,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>146</v>
@@ -4811,8 +4880,8 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="117">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
         <v>148</v>
       </c>
@@ -4828,8 +4897,8 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="156">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="3" t="s">
         <v>149</v>
       </c>
@@ -4837,7 +4906,7 @@
         <v>68</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>150</v>
@@ -4845,8 +4914,8 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="3" t="s">
         <v>123</v>
       </c>
@@ -4858,8 +4927,8 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="104">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3" t="s">
         <v>151</v>
       </c>
@@ -4867,10 +4936,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -4915,19 +4984,19 @@
     </row>
     <row r="43" spans="1:7" ht="104">
       <c r="A43" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="C43" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>106</v>
@@ -4937,16 +5006,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="26">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>106</v>
@@ -4959,13 +5028,13 @@
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>106</v>
@@ -4974,49 +5043,49 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="26">
-      <c r="A47" s="17" t="s">
+    <row r="46" spans="1:7" ht="52">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="26">
+      <c r="A48" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="26">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E48" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>106</v>
@@ -5025,17 +5094,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+    <row r="49" spans="1:7" ht="26">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>106</v>
@@ -5047,46 +5116,46 @@
     <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="26">
-      <c r="A51" s="17" t="s">
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="26">
+      <c r="A52" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="D52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="65">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>106</v>
@@ -5095,21 +5164,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="39">
-      <c r="A53" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>179</v>
-      </c>
+    <row r="53" spans="1:7" ht="65">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>106</v>
@@ -5119,58 +5184,81 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="39">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="39">
+      <c r="A55" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C55" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D55" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="26">
-      <c r="A55" s="18"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>106</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="26">
+      <c r="A56" s="19"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="B2:B30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="B31:B39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5179,10 +5267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B56"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5600,6 +5688,14 @@
         <v>97</v>
       </c>
     </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C57" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5611,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5627,222 +5723,222 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="39">
       <c r="A2" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="52">
+      <c r="A3" s="18"/>
+      <c r="B3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="52">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="52">
+      <c r="A4" s="18"/>
+      <c r="B4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="78">
+      <c r="A5" s="18"/>
+      <c r="B5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="52">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="78">
-      <c r="A5" s="19"/>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="39">
+      <c r="A6" s="18"/>
+      <c r="B6" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="39">
-      <c r="A6" s="19"/>
-      <c r="B6" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="78">
+      <c r="A7" s="18"/>
+      <c r="B7" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="78">
-      <c r="A7" s="19"/>
-      <c r="B7" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="65">
+      <c r="A8" s="18"/>
+      <c r="B8" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="65">
-      <c r="A8" s="19"/>
-      <c r="B8" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="78">
+      <c r="A9" s="18"/>
+      <c r="B9" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="78">
-      <c r="A9" s="19"/>
-      <c r="B9" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="39">
+      <c r="A10" s="18"/>
+      <c r="B10" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="39">
-      <c r="A10" s="19"/>
-      <c r="B10" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="39">
+      <c r="A11" s="18"/>
+      <c r="B11" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="39">
-      <c r="A11" s="19"/>
-      <c r="B11" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="39">
+      <c r="A12" s="18"/>
+      <c r="B12" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="39">
-      <c r="A12" s="19"/>
-      <c r="B12" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19"/>
-      <c r="B13" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5851,81 +5947,81 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="26">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="78">
+      <c r="A15" s="18"/>
+      <c r="B15" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="78">
-      <c r="A15" s="19"/>
-      <c r="B15" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="18"/>
+      <c r="B16" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19"/>
-      <c r="B16" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="26">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="26">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -5940,190 +6036,190 @@
     </row>
     <row r="20" spans="1:7" ht="78">
       <c r="A20" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="52">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="52">
-      <c r="A21" s="19"/>
-      <c r="B21" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="39">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="39">
-      <c r="A22" s="19"/>
-      <c r="B22" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="65">
+      <c r="A23" s="18"/>
+      <c r="B23" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="65">
-      <c r="A23" s="19"/>
-      <c r="B23" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="39">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="39">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="39">
-      <c r="A25" s="19"/>
-      <c r="B25" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="78">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="78">
+      <c r="A27" s="18"/>
+      <c r="B27" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="78">
-      <c r="A27" s="19"/>
-      <c r="B27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="65">
+      <c r="A28" s="18"/>
+      <c r="B28" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="65">
-      <c r="A28" s="19"/>
-      <c r="B28" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="52">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="52">
-      <c r="A29" s="19"/>
-      <c r="B29" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="39">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -6138,137 +6234,137 @@
     </row>
     <row r="32" spans="1:7" ht="143">
       <c r="A32" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="52">
+      <c r="A33" s="18"/>
+      <c r="B33" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="52">
-      <c r="A33" s="19"/>
-      <c r="B33" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="65">
+      <c r="A34" s="18"/>
+      <c r="B34" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="65">
-      <c r="A34" s="19"/>
-      <c r="B34" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="65">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="65">
-      <c r="A35" s="19"/>
-      <c r="B35" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="19"/>
-      <c r="B36" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
@@ -6284,85 +6380,85 @@
     </row>
     <row r="42" spans="1:8" ht="91">
       <c r="A42" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="104">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="104">
-      <c r="A43" s="19"/>
-      <c r="B43" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="26">
+      <c r="A44" s="18"/>
+      <c r="B44" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="26">
-      <c r="A44" s="19"/>
-      <c r="B44" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="39">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:8" ht="117">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>306</v>
-      </c>
       <c r="G46" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H46" s="13"/>
     </row>
@@ -6386,15 +6482,15 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -6410,18 +6506,18 @@
     </row>
     <row r="51" spans="1:7" ht="52">
       <c r="A51" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -6442,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6458,80 +6554,80 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="234">
       <c r="A2" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="81.5" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="52" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="52" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>332</v>
       </c>
       <c r="G4" s="2"/>
     </row>
